--- a/01-beginner/066-zoom.xlsx
+++ b/01-beginner/066-zoom.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13013"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Disney Trip" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,9 +23,42 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Disneyland</t>
+  </si>
+  <si>
+    <t>Park Pass for 5 days per person</t>
+  </si>
+  <si>
+    <t>Flight to FAT - LAX per person</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>incidentals</t>
+  </si>
+  <si>
+    <t>total per person</t>
+  </si>
+  <si>
+    <t>number of people</t>
+  </si>
+  <si>
+    <t>total for group</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +66,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Princess Sofia"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -50,12 +99,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +196,95 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>714374</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087E346E-7117-41E2-A4C0-26D7714950B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7172325" y="1081087"/>
+          <a:ext cx="4276726" cy="3109913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="190500" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="65000" dist="50800" dir="12900000" kx="195000" ky="145000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="30000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront">
+            <a:rot lat="0" lon="0" rev="360000"/>
+          </a:camera>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d contourW="12700">
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="969696"/>
+          </a:contourClr>
+        </a:sp3d>
+        <a:extLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,13 +584,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="43.73046875" customWidth="1"/>
+    <col min="3" max="3" width="16.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:3" ht="114" thickTop="1" x14ac:dyDescent="5.55">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4">
+        <f>95*6</f>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <f>C4+C5+C6+C7</f>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10">
+        <f>C10*C8</f>
+        <v>15850</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>